--- a/output/VERDE_24048538000134.xlsx
+++ b/output/VERDE_24048538000134.xlsx
@@ -878,10 +878,10 @@
         <v>44165</v>
       </c>
       <c r="B45">
-        <v>0.39424331</v>
+        <v>0.39380671</v>
       </c>
       <c r="C45">
-        <v>0.02064987565544252</v>
+        <v>0.02033026448534403</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_24048538000134.xlsx
+++ b/output/VERDE_24048538000134.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE AM SCENA ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,502 +383,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42855</v>
       </c>
       <c r="B2">
-        <v>0.01074332999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42886</v>
       </c>
       <c r="B3">
-        <v>0.004761149999999992</v>
-      </c>
-      <c r="C3">
         <v>-0.005918594585234582</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42916</v>
       </c>
       <c r="B4">
-        <v>0.0129860799999999</v>
-      </c>
-      <c r="C4">
         <v>0.008185955438265058</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42947</v>
       </c>
       <c r="B5">
-        <v>0.04080258000000003</v>
-      </c>
-      <c r="C5">
         <v>0.02745990349640359</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42978</v>
       </c>
       <c r="B6">
-        <v>0.05192109999999994</v>
-      </c>
-      <c r="C6">
         <v>0.0106826406982965</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43008</v>
       </c>
       <c r="B7">
-        <v>0.06245945999999991</v>
-      </c>
-      <c r="C7">
         <v>0.01001820383677066</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43039</v>
       </c>
       <c r="B8">
-        <v>0.06447968000000004</v>
-      </c>
-      <c r="C8">
         <v>0.001901456080027897</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43069</v>
       </c>
       <c r="B9">
-        <v>0.06687789</v>
-      </c>
-      <c r="C9">
         <v>0.002252941080096438</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43100</v>
       </c>
       <c r="B10">
-        <v>0.07527082000000007</v>
-      </c>
-      <c r="C10">
         <v>0.007866814073727024</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43131</v>
       </c>
       <c r="B11">
-        <v>0.09265809999999997</v>
-      </c>
-      <c r="C11">
         <v>0.01617014028149666</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43159</v>
       </c>
       <c r="B12">
-        <v>0.09398927000000001</v>
-      </c>
-      <c r="C12">
         <v>0.001218285939581731</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43190</v>
       </c>
       <c r="B13">
-        <v>0.1063512600000001</v>
-      </c>
-      <c r="C13">
         <v>0.01129991887397575</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43220</v>
       </c>
       <c r="B14">
-        <v>0.1066377000000001</v>
-      </c>
-      <c r="C14">
         <v>0.0002589051148185195</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43251</v>
       </c>
       <c r="B15">
-        <v>0.08045999000000004</v>
-      </c>
-      <c r="C15">
         <v>-0.02365517639603276</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43281</v>
       </c>
       <c r="B16">
-        <v>0.08142895999999999</v>
-      </c>
-      <c r="C16">
         <v>0.0008968124770636354</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43312</v>
       </c>
       <c r="B17">
-        <v>0.1021836199999999</v>
-      </c>
-      <c r="C17">
         <v>0.0191918847817798</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43343</v>
       </c>
       <c r="B18">
-        <v>0.09146033000000009</v>
-      </c>
-      <c r="C18">
         <v>-0.009729132066034318</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43373</v>
       </c>
       <c r="B19">
-        <v>0.10027732</v>
-      </c>
-      <c r="C19">
         <v>0.008078158919435863</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43404</v>
       </c>
       <c r="B20">
-        <v>0.14305269</v>
-      </c>
-      <c r="C20">
         <v>0.03887689878039113</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43434</v>
       </c>
       <c r="B21">
-        <v>0.1539312500000001</v>
-      </c>
-      <c r="C21">
         <v>0.009517111586518467</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43465</v>
       </c>
       <c r="B22">
-        <v>0.1610619499999999</v>
-      </c>
-      <c r="C22">
         <v>0.006179484263035384</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43496</v>
       </c>
       <c r="B23">
-        <v>0.19699464</v>
-      </c>
-      <c r="C23">
         <v>0.03094812468878172</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43524</v>
       </c>
       <c r="B24">
-        <v>0.1990764700000001</v>
-      </c>
-      <c r="C24">
         <v>0.001739214137166156</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43555</v>
       </c>
       <c r="B25">
-        <v>0.20111455</v>
-      </c>
-      <c r="C25">
         <v>0.001699708109525355</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43585</v>
       </c>
       <c r="B26">
-        <v>0.21324177</v>
-      </c>
-      <c r="C26">
         <v>0.01009663899250901</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43616</v>
       </c>
       <c r="B27">
-        <v>0.2284070199999999</v>
-      </c>
-      <c r="C27">
         <v>0.01249977570422756</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43646</v>
       </c>
       <c r="B28">
-        <v>0.2478795899999999</v>
-      </c>
-      <c r="C28">
         <v>0.01585188759341349</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43677</v>
       </c>
       <c r="B29">
-        <v>0.25643148</v>
-      </c>
-      <c r="C29">
         <v>0.006853137168466805</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43708</v>
       </c>
       <c r="B30">
-        <v>0.2661186200000001</v>
-      </c>
-      <c r="C30">
         <v>0.007710042413136664</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43738</v>
       </c>
       <c r="B31">
-        <v>0.2846258800000001</v>
-      </c>
-      <c r="C31">
         <v>0.0146173191892558</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43769</v>
       </c>
       <c r="B32">
-        <v>0.3019697400000001</v>
-      </c>
-      <c r="C32">
         <v>0.01350109807845379</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43799</v>
       </c>
       <c r="B33">
-        <v>0.30155708</v>
-      </c>
-      <c r="C33">
         <v>-0.0003169505306629405</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43830</v>
       </c>
       <c r="B34">
-        <v>0.32323715</v>
-      </c>
-      <c r="C34">
         <v>0.01665702590623219</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43861</v>
       </c>
       <c r="B35">
-        <v>0.3316147700000001</v>
-      </c>
-      <c r="C35">
         <v>0.006331155379064146</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43890</v>
       </c>
       <c r="B36">
-        <v>0.3185072600000001</v>
-      </c>
-      <c r="C36">
         <v>-0.009843319776334458</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43921</v>
       </c>
       <c r="B37">
-        <v>0.2017585200000001</v>
-      </c>
-      <c r="C37">
         <v>-0.08854614877130063</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43951</v>
       </c>
       <c r="B38">
-        <v>0.26981484</v>
-      </c>
-      <c r="C38">
         <v>0.05663061161405358</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43982</v>
       </c>
       <c r="B39">
-        <v>0.31250402</v>
-      </c>
-      <c r="C39">
         <v>0.03361842896717127</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44012</v>
       </c>
       <c r="B40">
-        <v>0.3443195100000001</v>
-      </c>
-      <c r="C40">
         <v>0.02424029908876024</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44043</v>
       </c>
       <c r="B41">
-        <v>0.3726647000000001</v>
-      </c>
-      <c r="C41">
         <v>0.02108515854240633</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44074</v>
       </c>
       <c r="B42">
-        <v>0.3825685299999999</v>
-      </c>
-      <c r="C42">
         <v>0.007215039477594054</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44104</v>
       </c>
       <c r="B43">
-        <v>0.3697737800000001</v>
-      </c>
-      <c r="C43">
         <v>-0.009254333309611673</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44135</v>
       </c>
       <c r="B44">
-        <v>0.3660348600000001</v>
-      </c>
-      <c r="C44">
         <v>-0.00272958940709167</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44165</v>
       </c>
       <c r="B45">
-        <v>0.39380671</v>
-      </c>
-      <c r="C45">
-        <v>0.02033026448534403</v>
+        <v>0.016570477564533</v>
       </c>
     </row>
   </sheetData>
